--- a/data/trans_camb/CoTrAQ_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/CoTrAQ_R-Estudios-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-41.37142133115952</v>
+        <v>-41.06965553075797</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-45.41142629422994</v>
+        <v>-44.83218209099099</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-38.30625451021697</v>
+        <v>-38.84909237696388</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-18.86594553697506</v>
+        <v>-19.72116892981984</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-16.96162811112313</v>
+        <v>-16.12844768714707</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-21.04212808591209</v>
+        <v>-21.00069862924915</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5258489922973144</v>
+        <v>-0.5256670470133979</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6324445151416022</v>
+        <v>-0.6217687999681412</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5145115792931242</v>
+        <v>-0.5164698670854271</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.2647977803021465</v>
+        <v>-0.2752772076453834</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.2770423640320458</v>
+        <v>-0.2598978467983275</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.3088848337168065</v>
+        <v>-0.3051210853816412</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-20.06730910804236</v>
+        <v>-20.21525398444333</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-19.09337892050084</v>
+        <v>-19.40549647579979</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-18.35244658305539</v>
+        <v>-18.28838167667578</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-10.87693440452021</v>
+        <v>-10.67526596443086</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-7.683514734209031</v>
+        <v>-7.056761567592286</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-10.9617024348582</v>
+        <v>-11.20135978044814</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2911591480815957</v>
+        <v>-0.2913866554106018</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3004157057506154</v>
+        <v>-0.3026255938683652</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2766058536334954</v>
+        <v>-0.2762281198012446</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.1712059836391654</v>
+        <v>-0.164203642421543</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1345883219583506</v>
+        <v>-0.1243428034740293</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.1736064772110049</v>
+        <v>-0.1765901607850767</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-22.58350153722905</v>
+        <v>-21.79415203266204</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-25.65736432058216</v>
+        <v>-24.87875164132027</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-21.25965731318031</v>
+        <v>-21.32733286294743</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-8.133513215798775</v>
+        <v>-7.435878720261242</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-8.384160460890111</v>
+        <v>-8.437734181452646</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-10.54380538605546</v>
+        <v>-10.51823804409521</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.267201384502814</v>
+        <v>-0.26136798981594</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3220760957575455</v>
+        <v>-0.3136548740227473</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2622002843536477</v>
+        <v>-0.2622634419851592</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1047960887545432</v>
+        <v>-0.09564223106349516</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1168759067866604</v>
+        <v>-0.1210662626205892</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1391919016093691</v>
+        <v>-0.1394752239030878</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-20.49211860064686</v>
+        <v>-20.85754765982126</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-20.14669328458513</v>
+        <v>-19.85958762289336</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-19.40446616154777</v>
+        <v>-19.2054055235274</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-13.25768705849778</v>
+        <v>-13.185067040385</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-11.01107607251636</v>
+        <v>-10.68266889568708</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-13.60646861402605</v>
+        <v>-13.6410154176983</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2830575043357418</v>
+        <v>-0.2835432342783567</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2970212368801834</v>
+        <v>-0.2964220707328589</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2752722355108899</v>
+        <v>-0.2729823551112458</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1904497898658097</v>
+        <v>-0.1872755306186403</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1758759011090863</v>
+        <v>-0.1761010413087455</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.201666467387866</v>
+        <v>-0.2031959511019207</v>
       </c>
     </row>
     <row r="28">
